--- a/branches/viral-load-suppression_fig-28/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
